--- a/docs/team_39_Test_Status_Trackerv4.xlsx
+++ b/docs/team_39_Test_Status_Trackerv4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/udaybindal/Desktop/dass-project-spring-2024-team-39/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53F8AF2F-3B4D-5F42-BDC4-3751A7677C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{344D16CD-0AAB-1C40-A6C1-117DF8B8452E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="26240" windowHeight="16360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="166">
   <si>
     <t>Test Planner and Tracker</t>
   </si>
@@ -552,6 +552,15 @@
   </si>
   <si>
     <t>Authentication (login) and chatbox has been implemented.</t>
+  </si>
+  <si>
+    <t>Upload and Preview Protocols</t>
+  </si>
+  <si>
+    <t>tPreview Feature</t>
+  </si>
+  <si>
+    <t>Protocols should be uploaded and after uploading the admin should be able to preview them.</t>
   </si>
 </sst>
 </file>
@@ -1405,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -2137,7 +2146,7 @@
     </row>
     <row r="31" spans="1:9" ht="46.5" customHeight="1">
       <c r="A31" s="10">
-        <f t="shared" ref="A31:A32" si="3">A30+1</f>
+        <f t="shared" ref="A31:A33" si="3">A30+1</f>
         <v>29</v>
       </c>
       <c r="B31" s="59" t="s">
@@ -2179,22 +2188,43 @@
       <c r="H32" s="8"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
-    <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1"/>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1"/>
-    <row r="47" ht="12.75" customHeight="1"/>
-    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="33" spans="1:9" ht="46.5" customHeight="1">
+      <c r="A33" s="10">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="E33" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="35" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="36" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="37" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="38" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="39" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="40" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="41" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="42" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="43" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="44" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="45" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="46" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="47" spans="1:9" ht="12.75" customHeight="1"/>
+    <row r="48" spans="1:9" ht="12.75" customHeight="1"/>
     <row r="49" ht="12.75" customHeight="1"/>
     <row r="50" ht="12.75" customHeight="1"/>
     <row r="51" ht="12.75" customHeight="1"/>
